--- a/Python/Processed_Data.xlsx
+++ b/Python/Processed_Data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_Person__rank</t>
+          <t>_Person__fname</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>_Person__fname</t>
+          <t>_Person__mname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>_Person__mname</t>
+          <t>_Person__lname</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>_Person__lname</t>
+          <t>_Person__birthDate</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,52 +461,49 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>_Person__birthDate</t>
+          <t>_Person__gpa</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>_Person__gpa</t>
+          <t>_Person__email</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>_Person__email</t>
+          <t>_Person__gender</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>_Person__gender</t>
+          <t>_Person__specialization</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>_Person__specialization</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>_Person__phone</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>30</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rami</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rami</t>
+          <t>Nedal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nedal</t>
+          <t>Aljaber</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aljaber</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -516,274 +513,237 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>ramialjaber2004@gmail.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ramialjaber2004@gmail.com</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nasser</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12/5/2001</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2000566485</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Se</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0778563214</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nasser</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2000566485</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12/5/2001</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Se</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0778563214</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ali</t>
+          <t>Mohsin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mohsin</t>
+          <t>'12-12-1965</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>'12-12-1965</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>ahmadali@yaho.com</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ahmadali@yaho.com</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Cis</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Cis</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>0770000055</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Jff</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Klds</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Klds</t>
+          <t>Jkl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jkl</t>
+          <t>Ff</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ff</t>
+          <t>f</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sjdklf</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sjdklf</t>
+          <t>Sdfms</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sdfms</t>
+          <t>Fsd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fsd</t>
+          <t>fs</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>fs</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Dd</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>20</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baab</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Baab</t>
+          <t>Djkfsl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Djkfsl</t>
+          <t>Fskfnkl</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fskfnkl</t>
+          <t>78/oct/2024</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -791,81 +751,71 @@
           <t>2000049494</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>78/oct/2024</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>haha@edu.hu</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>haha@edu.hu</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
           <t>Se</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dsfkslk</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dsfkslk</t>
+          <t>Fsklmdfl</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fsklmdfl</t>
+          <t>Sfmskl</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sfmskl</t>
+          <t>fmskl</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>fmskl</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Fskl</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>20</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hala</t>
+          <t>Helo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Helo</t>
+          <t>Hana</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hana</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -875,83 +825,73 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>haha@email.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>haha@email.com</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
           <t>Cs</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ihiohi</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ihiohi</t>
+          <t>Bjbkjbkj</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bjbkjbkj</t>
+          <t>Mbm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mbm</t>
+          <t>jkljklj</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>jkljklj</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Bnmbnm</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>30</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rami</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rami</t>
+          <t>Nedal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nedal</t>
+          <t>Aljaber</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aljaber</t>
+          <t>31/12/2004</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -961,426 +901,391 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31/12/2004</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>ramialjaber2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0796526214</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Asim</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Ghazi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Alakhras</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12/12/2004</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2000655893</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ramialjaber2004@gmail.com</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>asim2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0796526214</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>30</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Asim</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ghazi</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Alakhras</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2000655893</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>12/12/2004</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>asim2004@gmail.com</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>Data Science</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0796523145</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Suhaib</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Basim</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Alqudah</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12/2001/2001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2000398957</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ALQUDAHSUHAIB@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Data Science</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0796523145</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Suhaib</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Basim</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Alqudah</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2000398957</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>12/2001/2001</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ALQUDAHSUHAIB@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Amro</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amro</t>
+          <t>Hamed</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hameed</t>
+          <t>Alali</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Alali</t>
+          <t>19/5/2004</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Cs</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0797762690</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bye</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Welcome</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1/1/2001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>hi@gmail.com</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Cis</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0798541235</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hani</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mohamed</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1/1/2005</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2000588647</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ahmadhani@gmail.com</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Cs</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0798563214</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hamzah</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Zuuhair</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Abujhesha</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26/10/2004</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2000946948</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>hamzah2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Cis</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0797544527</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Amro</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hamed</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Alali</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>19/5/2004</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2000855333</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>amroalalii@gmail.com</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Cs</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0797762690</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Bye</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Welcome</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1/1/2001</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>hi@gmail.com</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Cis</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0798541235</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>20</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Hani</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Mohamed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2000588647</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1/1/2005</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ahmadhani@gmail.com</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Cs</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0798563214</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>20</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Hamzahh</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Zuuhair</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Abujhesha</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2000946948</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>26/10/2004</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>hamzah2004@gmail.com</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Cis</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0797544527</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>30</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Amro</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Hamed</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Alali</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2000855333</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>19/5/2004</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>amroalalii@gmail.com</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Cs</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ahmad</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ahmadd</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1390,117 +1295,111 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>30/5/2004</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2000988562</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ahmad@gmail.com</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0796485632</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Abood</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hani</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elyaan</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4/4/2003</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2000788563</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>abood2003@gmail.com</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Cs</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0792226354</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2000988562</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>30/5/2004</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ahmad@gmail.com</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0796485632</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>30</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Abood</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Hani</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Elyaan</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2000788563</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4/4/2003</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>abood2003@gmail.com</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Cs</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0792226354</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>20</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hannah</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ali</t>
+          <t>Semi</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Semi</t>
+          <t>45/12/2055</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1508,24 +1407,19 @@
           <t>2000333333</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>45/12/2055</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Cis</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>Cis</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>0795555555</t>
         </is>
